--- a/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries_updated.xlsx
+++ b/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="13040" tabRatio="902" firstSheet="1" activeTab="3"/>
+    <workbookView windowHeight="16600" tabRatio="902" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="area_type" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="release_status" sheetId="10" r:id="rId7"/>
     <sheet name="release-group_primary-type" sheetId="7" r:id="rId8"/>
     <sheet name="release-group_secondary-types" sheetId="8" r:id="rId9"/>
-    <sheet name="work-type" sheetId="9" r:id="rId10"/>
+    <sheet name="work-language" sheetId="11" r:id="rId10"/>
+    <sheet name="work-type" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">label_country!$A$1:$F$209</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1318">
   <si>
     <t>type</t>
   </si>
@@ -2198,25 +2199,25 @@
     <t>Bootleg</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q558325</t>
+    <t>http://www.wikidata.org/entity/Q558325</t>
   </si>
   <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q30108381</t>
+    <t>http://www.wikidata.org/entity/Q30108381</t>
   </si>
   <si>
     <t>Official</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q29509043</t>
+    <t>http://www.wikidata.org/entity/Q29509043</t>
   </si>
   <si>
     <t>Promotion</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q129979844</t>
+    <t>http://www.wikidata.org/entity/Q129979844</t>
   </si>
   <si>
     <t>Pseudo-Release</t>
@@ -2333,172 +2334,1666 @@
     <t>http://www.wikidata.org/entity/Q1428637</t>
   </si>
   <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>language_uri</t>
+  </si>
+  <si>
+    <t>labelOfReconciledEntityOnWikidata</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q11059</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13349</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1571</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>afr</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q14196</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>ain</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q27969</t>
+  </si>
+  <si>
+    <t>Ainu</t>
+  </si>
+  <si>
+    <t>aka</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q11010149</t>
+  </si>
+  <si>
+    <t>Aka</t>
+  </si>
+  <si>
+    <t>akk</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35518</t>
+  </si>
+  <si>
+    <t>Akkadian</t>
+  </si>
+  <si>
+    <t>amh</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q28244</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q42365</t>
+  </si>
+  <si>
+    <t>Old English</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13955</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q8765</t>
+  </si>
+  <si>
+    <t>Aragonese</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q29507</t>
+  </si>
+  <si>
+    <t>Asturian</t>
+  </si>
+  <si>
+    <t>ava</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q29561</t>
+  </si>
+  <si>
+    <t>Avar</t>
+  </si>
+  <si>
+    <t>aym</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q4627</t>
+  </si>
+  <si>
+    <t>Aymara</t>
+  </si>
+  <si>
+    <t>aze</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9292</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>bam</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33243</t>
+  </si>
+  <si>
+    <t>Bambara</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q29540</t>
+  </si>
+  <si>
+    <t>Bavarian</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9091</t>
+  </si>
+  <si>
+    <t>Belarusian</t>
+  </si>
+  <si>
+    <t>bem</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33052</t>
+  </si>
+  <si>
+    <t>Bemba</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9610</t>
+  </si>
+  <si>
+    <t>Bangla</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35452</t>
+  </si>
+  <si>
+    <t>Bislama</t>
+  </si>
+  <si>
+    <t>bod</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34271</t>
+  </si>
+  <si>
+    <t>Tibetan</t>
+  </si>
+  <si>
+    <t>bos</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9301</t>
+  </si>
+  <si>
+    <t>Serbo-Croatian</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35243</t>
+  </si>
+  <si>
+    <t>Braj Bhasha</t>
+  </si>
+  <si>
+    <t>bre</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q12107</t>
+  </si>
+  <si>
+    <t>Breton</t>
+  </si>
+  <si>
+    <t>bul</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q7026</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>ces</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>chm</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>cmn</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9192</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36155</t>
+  </si>
+  <si>
+    <t>Coptic</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q25289</t>
+  </si>
+  <si>
+    <t>Cornish</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>cre</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33390</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>cym</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>deu</t>
+  </si>
+  <si>
+    <t>dje</t>
+  </si>
+  <si>
+    <t>dua</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33013</t>
+  </si>
+  <si>
+    <t>Duala</t>
+  </si>
+  <si>
+    <t>dum</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q178806</t>
+  </si>
+  <si>
+    <t>Middle Dutch</t>
+  </si>
+  <si>
+    <t>dzo</t>
+  </si>
+  <si>
+    <t>egy</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q50868</t>
+  </si>
+  <si>
+    <t>Egyptian</t>
+  </si>
+  <si>
+    <t>ell</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1860</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>enm</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36395</t>
+  </si>
+  <si>
+    <t>Middle English</t>
+  </si>
+  <si>
+    <t>epo</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q143</t>
+  </si>
+  <si>
+    <t>Esperanto</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9072</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>eus</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q8752</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33484</t>
+  </si>
+  <si>
+    <t>Fang</t>
+  </si>
+  <si>
+    <t>fao</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q25258</t>
+  </si>
+  <si>
+    <t>Faroese</t>
+  </si>
+  <si>
+    <t>fas</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q56320</t>
+  </si>
+  <si>
+    <t>Fas</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>fil</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33298</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1412</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>fon</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33291</t>
+  </si>
+  <si>
+    <t>Fon</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q150</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>frc</t>
+  </si>
+  <si>
+    <t>fro</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35222</t>
+  </si>
+  <si>
+    <t>Old French</t>
+  </si>
+  <si>
+    <t>fry</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q27175</t>
+  </si>
+  <si>
+    <t>West Frisian</t>
+  </si>
+  <si>
+    <t>ful</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33454</t>
+  </si>
+  <si>
+    <t>Fula</t>
+  </si>
+  <si>
+    <t>gla</t>
+  </si>
+  <si>
+    <t>gle</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9142</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>glg</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9307</t>
+  </si>
+  <si>
+    <t>Galician</t>
+  </si>
+  <si>
+    <t>glv</t>
+  </si>
+  <si>
+    <t>gmh</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q837985</t>
+  </si>
+  <si>
+    <t>Middle High German</t>
+  </si>
+  <si>
+    <t>gos</t>
+  </si>
+  <si>
+    <t>grc</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35497</t>
+  </si>
+  <si>
+    <t>Ancient Greek</t>
+  </si>
+  <si>
+    <t>grn</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35876</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>gsw</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q131339</t>
+  </si>
+  <si>
+    <t>Alemannic</t>
+  </si>
+  <si>
+    <t>guf</t>
+  </si>
+  <si>
+    <t>guj</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>haw</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33569</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
+  </si>
+  <si>
+    <t>heb</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9288</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>hmn</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q6654</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>hsb</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>hye</t>
+  </si>
+  <si>
+    <t>ibo</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9240</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>isl</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q652</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>izh</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35939</t>
+  </si>
+  <si>
+    <t>Jamaican Patois</t>
+  </si>
+  <si>
+    <t>jav</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33549</t>
+  </si>
+  <si>
+    <t>Javanese</t>
+  </si>
+  <si>
+    <t>jpn</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q5287</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>kal</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q25355</t>
+  </si>
+  <si>
+    <t>Greenlandic</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>kaz</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9252</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>kca</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33563</t>
+  </si>
+  <si>
+    <t>Khanty</t>
+  </si>
+  <si>
+    <t>kea</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q35963</t>
+  </si>
+  <si>
+    <t>Cape Verdean Creole</t>
+  </si>
+  <si>
+    <t>khm</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33573</t>
+  </si>
+  <si>
+    <t>Kinyarwanda</t>
+  </si>
+  <si>
+    <t>kir</t>
+  </si>
+  <si>
+    <t>kom</t>
+  </si>
+  <si>
+    <t>kor</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9176</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>krl</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33557</t>
+  </si>
+  <si>
+    <t>Karelian</t>
+  </si>
+  <si>
+    <t>ksh</t>
+  </si>
+  <si>
+    <t>kur</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36196</t>
+  </si>
+  <si>
+    <t>Judaeo-Spanish</t>
+  </si>
+  <si>
+    <t>lao</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9211</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q397</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>lav</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9078</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36217</t>
+  </si>
+  <si>
+    <t>Lingala</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>liv</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33698</t>
+  </si>
+  <si>
+    <t>Livonian</t>
+  </si>
+  <si>
+    <t>lkt</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33537</t>
+  </si>
+  <si>
+    <t>Lakota</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>ltz</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9051</t>
+  </si>
+  <si>
+    <t>Luxembourgish</t>
+  </si>
+  <si>
+    <t>luo</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>mkd</t>
+  </si>
+  <si>
+    <t>mlg</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q505674</t>
+  </si>
+  <si>
+    <t>Middle Low German</t>
+  </si>
+  <si>
+    <t>mlt</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9166</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>mns</t>
+  </si>
+  <si>
+    <t>moe</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13351</t>
+  </si>
+  <si>
+    <t>Innu-aimun</t>
+  </si>
+  <si>
+    <t>mri</t>
+  </si>
+  <si>
+    <t>msa</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q523014</t>
+  </si>
+  <si>
+    <t>Muscogee</t>
+  </si>
+  <si>
+    <t>mya</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9228</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36495</t>
+  </si>
+  <si>
+    <t>Southern Min</t>
+  </si>
+  <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33845</t>
+  </si>
+  <si>
+    <t>Neapolitan</t>
+  </si>
+  <si>
+    <t>nau</t>
+  </si>
+  <si>
+    <t>nav</t>
+  </si>
+  <si>
+    <t>nbl</t>
+  </si>
+  <si>
+    <t>nde</t>
+  </si>
+  <si>
+    <t>nds</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q25433</t>
+  </si>
+  <si>
+    <t>Low German</t>
+  </si>
+  <si>
+    <t>nep</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33823</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>nld</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q7411</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>nno</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q25164</t>
+  </si>
+  <si>
+    <t>Nynorsk</t>
+  </si>
+  <si>
+    <t>nob</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q25167</t>
+  </si>
+  <si>
+    <t>Bokmål</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>nrn</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36708</t>
+  </si>
+  <si>
+    <t>Norn</t>
+  </si>
+  <si>
+    <t>nya</t>
+  </si>
+  <si>
+    <t>oci</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q14185</t>
+  </si>
+  <si>
+    <t>Occitan</t>
+  </si>
+  <si>
+    <t>ota</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36730</t>
+  </si>
+  <si>
+    <t>Ottoman Turkish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q58635</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>pap</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33856</t>
+  </si>
+  <si>
+    <t>Papiamento</t>
+  </si>
+  <si>
+    <t>pjt</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q2982063</t>
+  </si>
+  <si>
+    <t>Pitjantjatjara</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36408</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q5146</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>pus</t>
+  </si>
+  <si>
+    <t>pyu</t>
+  </si>
+  <si>
+    <t>qaa</t>
+  </si>
+  <si>
+    <t>que</t>
+  </si>
+  <si>
+    <t>qya</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q56383</t>
+  </si>
+  <si>
+    <t>Quenya</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>rcf</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13198</t>
+  </si>
+  <si>
+    <t>Réunion Creole</t>
+  </si>
+  <si>
+    <t>roh</t>
+  </si>
+  <si>
+    <t>rom</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13201</t>
+  </si>
+  <si>
+    <t>Romani</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33583</t>
+  </si>
+  <si>
+    <t>Kirundi</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q7737</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>ryu</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34233</t>
+  </si>
+  <si>
+    <t>Okinawan</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>scn</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33973</t>
+  </si>
+  <si>
+    <t>Sicilian</t>
+  </si>
+  <si>
+    <t>sco</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q14549</t>
+  </si>
+  <si>
+    <t>Scots</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13267</t>
+  </si>
+  <si>
+    <t>Sinhala</t>
+  </si>
+  <si>
+    <t>sjn</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q56437</t>
+  </si>
+  <si>
+    <t>Sindarin</t>
+  </si>
+  <si>
+    <t>slk</t>
+  </si>
+  <si>
+    <t>slv</t>
+  </si>
+  <si>
+    <t>sma</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13293</t>
+  </si>
+  <si>
+    <t>Southern Sami</t>
+  </si>
+  <si>
+    <t>sme</t>
+  </si>
+  <si>
+    <t>smo</t>
+  </si>
+  <si>
+    <t>sna</t>
+  </si>
+  <si>
+    <t>snk</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q1321</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>sqi</t>
+  </si>
+  <si>
+    <t>srd</t>
+  </si>
+  <si>
+    <t>srp</t>
+  </si>
+  <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>swa</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q7838</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9027</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>syr</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33538</t>
+  </si>
+  <si>
+    <t>Syriac</t>
+  </si>
+  <si>
+    <t>tah</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34128</t>
+  </si>
+  <si>
+    <t>Tahitian</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q5885</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>tgk</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9260</t>
+  </si>
+  <si>
+    <t>Tajik</t>
+  </si>
+  <si>
+    <t>tgl</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34057</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>tha</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>tkl</t>
+  </si>
+  <si>
+    <t>tlh</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q10134</t>
+  </si>
+  <si>
+    <t>Tllingoneg</t>
+  </si>
+  <si>
+    <t>tmh</t>
+  </si>
+  <si>
+    <t>tmr</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q33407</t>
+  </si>
+  <si>
+    <t>Jewish Babylonian Aramaic</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>tsn</t>
+  </si>
+  <si>
+    <t>tuk</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q256</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>tvl</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34055</t>
+  </si>
+  <si>
+    <t>Tuvaluan</t>
+  </si>
+  <si>
+    <t>twi</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q36850</t>
+  </si>
+  <si>
+    <t>Twi</t>
+  </si>
+  <si>
+    <t>tyv</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34119</t>
+  </si>
+  <si>
+    <t>Tuvan</t>
+  </si>
+  <si>
+    <t>udm</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13238</t>
+  </si>
+  <si>
+    <t>Udmurt</t>
+  </si>
+  <si>
+    <t>ukr</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q8798</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>urd</t>
+  </si>
+  <si>
+    <t>uzb</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9264</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>vep</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q32747</t>
+  </si>
+  <si>
+    <t>Veps</t>
+  </si>
+  <si>
+    <t>vie</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q9199</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>vot</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q32858</t>
+  </si>
+  <si>
+    <t>Votic</t>
+  </si>
+  <si>
+    <t>vro</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q32762</t>
+  </si>
+  <si>
+    <t>Võro</t>
+  </si>
+  <si>
+    <t>wal</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q2266723</t>
+  </si>
+  <si>
+    <t>Old Welsh</t>
+  </si>
+  <si>
+    <t>wln</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34219</t>
+  </si>
+  <si>
+    <t>Walloon</t>
+  </si>
+  <si>
+    <t>wol</t>
+  </si>
+  <si>
+    <t>wya</t>
+  </si>
+  <si>
+    <t>xce</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q37012</t>
+  </si>
+  <si>
+    <t>Celtiberian</t>
+  </si>
+  <si>
+    <t>xho</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q13218</t>
+  </si>
+  <si>
+    <t>Xhosa</t>
+  </si>
+  <si>
+    <t>yid</t>
+  </si>
+  <si>
+    <t>yor</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34311</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>yrl</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q34333</t>
+  </si>
+  <si>
+    <t>Nheengatu</t>
+  </si>
+  <si>
+    <t>yua</t>
+  </si>
+  <si>
+    <t>yue</t>
+  </si>
+  <si>
+    <t>zap</t>
+  </si>
+  <si>
+    <t>zho</t>
+  </si>
+  <si>
+    <t>zul</t>
+  </si>
+  <si>
+    <t>zxx</t>
+  </si>
+  <si>
     <t>Aria</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q178122</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q109349450</t>
+    <t>http://www.wikidata.org/entity/Q178122</t>
   </si>
   <si>
     <t>Ballet</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q4851628</t>
+    <t>http://www.wikidata.org/entity/Q4851628</t>
   </si>
   <si>
     <t>Beijing opera</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q335101</t>
+    <t>http://www.wikidata.org/entity/Q335101</t>
   </si>
   <si>
     <t>Cantata</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q174873</t>
+    <t>http://www.wikidata.org/entity/Q174873</t>
   </si>
   <si>
     <t>Concerto</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q9748</t>
+    <t>http://www.wikidata.org/entity/Q9748</t>
   </si>
   <si>
     <t>Incidental music</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q1147752</t>
+    <t>http://www.wikidata.org/entity/Q1147752</t>
   </si>
   <si>
     <t>Madrigal</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q193217</t>
+    <t>http://www.wikidata.org/entity/Q193217</t>
   </si>
   <si>
     <t>Mass</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q217295</t>
+    <t>http://www.wikidata.org/entity/Q217295</t>
   </si>
   <si>
     <t>Motet</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q188285</t>
+    <t>http://www.wikidata.org/entity/Q188285</t>
   </si>
   <si>
     <t>Musical</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q2743</t>
+    <t>http://www.wikidata.org/entity/Q2743</t>
   </si>
   <si>
     <t>Opera</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q1344</t>
+    <t>http://www.wikidata.org/entity/Q1344</t>
   </si>
   <si>
     <t>Operetta</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q170384</t>
+    <t>http://www.wikidata.org/entity/Q170384</t>
   </si>
   <si>
     <t>Oratorio</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q85477</t>
+    <t>http://www.wikidata.org/entity/Q85477</t>
   </si>
   <si>
     <t>Overture</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q202287</t>
+    <t>http://www.wikidata.org/entity/Q202287</t>
   </si>
   <si>
     <t>Partita</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q388383</t>
+    <t>http://www.wikidata.org/entity/Q388383</t>
   </si>
   <si>
     <t>Play</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q25379</t>
+    <t>http://www.wikidata.org/entity/Q25379</t>
   </si>
   <si>
     <t>Poem</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q5185279</t>
+    <t>http://www.wikidata.org/entity/Q5185279</t>
   </si>
   <si>
     <t>Prose</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q25396338</t>
+    <t>http://www.wikidata.org/entity/Q25396338</t>
   </si>
   <si>
     <t>Quartet</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q12367929</t>
+    <t>http://www.wikidata.org/entity/Q12367929</t>
   </si>
   <si>
     <t>Sonata</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q131269</t>
+    <t>http://www.wikidata.org/entity/Q131269</t>
   </si>
   <si>
     <t>Song</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q7366</t>
+    <t>http://www.wikidata.org/entity/Q7366</t>
   </si>
   <si>
     <t>Song-cycle</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q893466</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q107736421</t>
+    <t>http://www.wikidata.org/entity/Q893466</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q107736421</t>
   </si>
   <si>
     <t>Suite</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q203005</t>
+    <t>http://www.wikidata.org/entity/Q203005</t>
   </si>
   <si>
     <t>Symphonic poem</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q271802</t>
+    <t>http://www.wikidata.org/entity/Q271802</t>
   </si>
   <si>
     <t>Symphony</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q9734</t>
+    <t>http://www.wikidata.org/entity/Q9734</t>
   </si>
   <si>
     <t>Zarzuela</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q148163</t>
+    <t>http://www.wikidata.org/entity/Q148163</t>
   </si>
   <si>
     <t>Étude</t>
   </si>
   <si>
-    <t>https://www.wikidata.org/wiki/Q207841</t>
+    <t>http://www.wikidata.org/entity/Q207841</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +4006,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2533,6 +4028,19 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3031,134 +4539,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3168,19 +4676,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3738,15 +5255,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -3754,7 +5271,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -3762,7 +5279,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -3770,7 +5287,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -3778,12 +5295,12 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -3791,7 +5308,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -3799,7 +5316,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -3807,7 +5324,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -3815,8 +5332,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3827,10 +5344,2348 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C227"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="24.6015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B219" s="5"/>
+      <c r="C219" s="4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="C222" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="C223" s="4" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="C225" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -3849,10 +7704,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>764</v>
+        <v>1263</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3860,175 +7715,175 @@
         <v>740</v>
       </c>
       <c r="B3" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>767</v>
+        <v>1265</v>
       </c>
       <c r="B4" t="s">
-        <v>768</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>769</v>
+        <v>1267</v>
       </c>
       <c r="B5" t="s">
-        <v>770</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>771</v>
+        <v>1269</v>
       </c>
       <c r="B6" t="s">
-        <v>772</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>773</v>
+        <v>1271</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>775</v>
+        <v>1273</v>
       </c>
       <c r="B8" t="s">
-        <v>776</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>777</v>
+        <v>1275</v>
       </c>
       <c r="B9" t="s">
-        <v>778</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>1277</v>
       </c>
       <c r="B10" t="s">
-        <v>780</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>781</v>
+        <v>1279</v>
       </c>
       <c r="B11" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>783</v>
+        <v>1281</v>
       </c>
       <c r="B12" t="s">
-        <v>784</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>785</v>
+        <v>1283</v>
       </c>
       <c r="B13" t="s">
-        <v>786</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>787</v>
+        <v>1285</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>789</v>
+        <v>1287</v>
       </c>
       <c r="B15" t="s">
-        <v>790</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>1289</v>
       </c>
       <c r="B16" t="s">
-        <v>792</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>793</v>
-      </c>
-      <c r="B17" t="s">
-        <v>794</v>
+        <v>1291</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>795</v>
+        <v>1293</v>
       </c>
       <c r="B18" t="s">
-        <v>796</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>797</v>
+        <v>1295</v>
       </c>
       <c r="B19" t="s">
-        <v>798</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>799</v>
+        <v>1297</v>
       </c>
       <c r="B20" t="s">
-        <v>800</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>801</v>
+        <v>1299</v>
       </c>
       <c r="B21" t="s">
-        <v>802</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>803</v>
+        <v>1301</v>
       </c>
       <c r="B22" t="s">
-        <v>804</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>805</v>
+        <v>1303</v>
       </c>
       <c r="B23" t="s">
-        <v>806</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>807</v>
+        <v>1305</v>
       </c>
       <c r="B24" t="s">
-        <v>808</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4036,50 +7891,53 @@
         <v>760</v>
       </c>
       <c r="B25" t="s">
-        <v>809</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>810</v>
+        <v>1308</v>
       </c>
       <c r="B26" t="s">
-        <v>811</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>812</v>
+        <v>1310</v>
       </c>
       <c r="B27" t="s">
-        <v>813</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>814</v>
+        <v>1312</v>
       </c>
       <c r="B28" t="s">
-        <v>815</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>816</v>
+        <v>1314</v>
       </c>
       <c r="B29" t="s">
-        <v>817</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>818</v>
+        <v>1316</v>
       </c>
       <c r="B30" t="s">
-        <v>819</v>
+        <v>1317</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" display="http://www.wikidata.org/entity/Q388383"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4108,15 +7966,15 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4124,7 +7982,7 @@
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4132,7 +7990,7 @@
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4140,12 +7998,12 @@
       </c>
     </row>
     <row r="6" ht="18" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4199,7 +8057,7 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4207,7 +8065,7 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4215,7 +8073,7 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4259,7 +8117,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4282,7 +8140,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -4290,7 +8148,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -4298,7 +8156,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -4306,7 +8164,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
@@ -4314,7 +8172,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
@@ -4322,7 +8180,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
@@ -4333,7 +8191,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
@@ -4344,7 +8202,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
@@ -4352,7 +8210,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
@@ -4360,7 +8218,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B11" t="s">
@@ -4687,9 +8545,9 @@
       <c r="C26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -4701,9 +8559,9 @@
       <c r="C27" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -4715,9 +8573,9 @@
       <c r="C28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
@@ -4729,9 +8587,9 @@
       <c r="C29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
@@ -4743,9 +8601,9 @@
       <c r="C30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
@@ -4757,9 +8615,9 @@
       <c r="C31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -4771,9 +8629,9 @@
       <c r="C32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
@@ -4785,9 +8643,9 @@
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
@@ -4799,9 +8657,9 @@
       <c r="C34" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
@@ -4813,9 +8671,9 @@
       <c r="C35" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
@@ -4827,9 +8685,9 @@
       <c r="C36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
@@ -4841,9 +8699,9 @@
       <c r="C37" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
@@ -4855,9 +8713,9 @@
       <c r="C38" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
@@ -4869,9 +8727,9 @@
       <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -4883,9 +8741,9 @@
       <c r="C40" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
@@ -4897,9 +8755,9 @@
       <c r="C41" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
@@ -4911,9 +8769,9 @@
       <c r="C42" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
@@ -4925,9 +8783,9 @@
       <c r="C43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
@@ -4939,9 +8797,9 @@
       <c r="C44" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
@@ -4953,9 +8811,9 @@
       <c r="C45" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
@@ -4967,9 +8825,9 @@
       <c r="C46" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
@@ -4981,9 +8839,9 @@
       <c r="C47" t="s">
         <v>205</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
@@ -4995,9 +8853,9 @@
       <c r="C48" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
@@ -5009,9 +8867,9 @@
       <c r="C49" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
@@ -5023,9 +8881,9 @@
       <c r="C50" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
@@ -5037,9 +8895,9 @@
       <c r="C51" t="s">
         <v>217</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
@@ -5051,9 +8909,9 @@
       <c r="C52" t="s">
         <v>220</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
@@ -5065,9 +8923,9 @@
       <c r="C53" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
@@ -5079,9 +8937,9 @@
       <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
@@ -5093,9 +8951,9 @@
       <c r="C55" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
@@ -5107,13 +8965,13 @@
       <c r="C56" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="7">
         <v>262</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5127,9 +8985,9 @@
       <c r="C57" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
@@ -5141,13 +8999,13 @@
       <c r="C58" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="7">
         <v>191</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5161,9 +9019,9 @@
       <c r="C59" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
@@ -5175,9 +9033,9 @@
       <c r="C60" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
@@ -5189,9 +9047,9 @@
       <c r="C61" t="s">
         <v>248</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
@@ -5203,9 +9061,9 @@
       <c r="C62" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
@@ -5217,9 +9075,9 @@
       <c r="C63" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
@@ -5231,9 +9089,9 @@
       <c r="C64" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
@@ -5245,9 +9103,9 @@
       <c r="C65" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
@@ -5259,13 +9117,13 @@
       <c r="C66" t="s">
         <v>263</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="7">
         <v>145</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="7" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5279,9 +9137,9 @@
       <c r="C67" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
@@ -5293,13 +9151,13 @@
       <c r="C68" t="s">
         <v>269</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="7">
         <v>230</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="7" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5313,13 +9171,13 @@
       <c r="C69" t="s">
         <v>272</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="7">
         <v>3769</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="7" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5333,13 +9191,13 @@
       <c r="C70" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="7">
         <v>25230</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="7" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5408,13 +9266,13 @@
       <c r="C76" t="s">
         <v>293</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="7">
         <v>17012</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="7" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5428,9 +9286,9 @@
       <c r="C77" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
@@ -5442,9 +9300,9 @@
       <c r="C78" t="s">
         <v>299</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
@@ -5456,13 +9314,13 @@
       <c r="C79" t="s">
         <v>302</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="7">
         <v>774</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="7" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5476,9 +9334,9 @@
       <c r="C80" t="s">
         <v>305</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
@@ -5490,13 +9348,13 @@
       <c r="C81" t="s">
         <v>308</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="7">
         <v>8646</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="7" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5510,9 +9368,9 @@
       <c r="C82" t="s">
         <v>311</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
@@ -5524,9 +9382,9 @@
       <c r="C83" t="s">
         <v>314</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
@@ -5538,9 +9396,9 @@
       <c r="C84" t="s">
         <v>317</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -5552,13 +9410,13 @@
       <c r="C85" t="s">
         <v>320</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="7">
         <v>28</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="7" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5572,9 +9430,9 @@
       <c r="C86" t="s">
         <v>323</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
@@ -5586,9 +9444,9 @@
       <c r="C87" t="s">
         <v>326</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
@@ -5600,9 +9458,9 @@
       <c r="C88" t="s">
         <v>329</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
@@ -5614,13 +9472,13 @@
       <c r="C89" t="s">
         <v>332</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="7">
         <v>9676</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="7" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5634,9 +9492,9 @@
       <c r="C90" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
@@ -5648,9 +9506,9 @@
       <c r="C91" t="s">
         <v>338</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
@@ -5662,9 +9520,9 @@
       <c r="C92" t="s">
         <v>341</v>
       </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
@@ -5676,9 +9534,9 @@
       <c r="C93" t="s">
         <v>344</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
@@ -5690,9 +9548,9 @@
       <c r="C94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
@@ -5704,13 +9562,13 @@
       <c r="C95" t="s">
         <v>350</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="7">
         <v>785</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5724,13 +9582,13 @@
       <c r="C96" t="s">
         <v>353</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="7">
         <v>766</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="7" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5744,9 +9602,9 @@
       <c r="C97" t="s">
         <v>356</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
@@ -5758,9 +9616,9 @@
       <c r="C98" t="s">
         <v>359</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
@@ -5772,9 +9630,9 @@
       <c r="C99" t="s">
         <v>362</v>
       </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
@@ -5786,9 +9644,9 @@
       <c r="C100" t="s">
         <v>365</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
@@ -5800,9 +9658,9 @@
       <c r="C101" t="s">
         <v>368</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
@@ -5814,9 +9672,9 @@
       <c r="C102" t="s">
         <v>371</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
@@ -5828,9 +9686,9 @@
       <c r="C103" t="s">
         <v>374</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
@@ -5842,9 +9700,9 @@
       <c r="C104" t="s">
         <v>377</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
@@ -5856,13 +9714,13 @@
       <c r="C105" t="s">
         <v>380</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="7">
         <v>5785</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="7" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5876,9 +9734,9 @@
       <c r="C106" t="s">
         <v>383</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
@@ -5890,9 +9748,9 @@
       <c r="C107" t="s">
         <v>386</v>
       </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
@@ -5904,9 +9762,9 @@
       <c r="C108" t="s">
         <v>389</v>
       </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
@@ -5918,9 +9776,9 @@
       <c r="C109" t="s">
         <v>392</v>
       </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
@@ -5932,13 +9790,13 @@
       <c r="C110" t="s">
         <v>395</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="7">
         <v>347</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="7" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5952,13 +9810,13 @@
       <c r="C111" t="s">
         <v>398</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="7">
         <v>854</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="7" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5972,9 +9830,9 @@
       <c r="C112" t="s">
         <v>401</v>
       </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
@@ -5986,9 +9844,9 @@
       <c r="C113" t="s">
         <v>404</v>
       </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
@@ -6000,9 +9858,9 @@
       <c r="C114" t="s">
         <v>407</v>
       </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
@@ -6014,13 +9872,13 @@
       <c r="C115" t="s">
         <v>410</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="7">
         <v>211</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="7" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6034,9 +9892,9 @@
       <c r="C116" t="s">
         <v>413</v>
       </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
@@ -6048,9 +9906,9 @@
       <c r="C117" t="s">
         <v>416</v>
       </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
@@ -6062,9 +9920,9 @@
       <c r="C118" t="s">
         <v>419</v>
       </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
@@ -6076,9 +9934,9 @@
       <c r="C119" t="s">
         <v>422</v>
       </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
@@ -6090,9 +9948,9 @@
       <c r="C120" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
@@ -6104,9 +9962,9 @@
       <c r="C121" t="s">
         <v>428</v>
       </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
@@ -6118,9 +9976,9 @@
       <c r="C122" t="s">
         <v>431</v>
       </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
@@ -6132,9 +9990,9 @@
       <c r="C123" t="s">
         <v>434</v>
       </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
@@ -6146,9 +10004,9 @@
       <c r="C124" t="s">
         <v>437</v>
       </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
@@ -6160,9 +10018,9 @@
       <c r="C125" t="s">
         <v>440</v>
       </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
@@ -6174,13 +10032,13 @@
       <c r="C126" t="s">
         <v>443</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="7">
         <v>711</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G126" s="7" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6194,13 +10052,13 @@
       <c r="C127" t="s">
         <v>446</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="7">
         <v>14773</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="7" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6214,13 +10072,13 @@
       <c r="C128" t="s">
         <v>449</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="7">
         <v>17054</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="7" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6234,13 +10092,13 @@
       <c r="C129" t="s">
         <v>452</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="7">
         <v>233</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="7" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6254,9 +10112,9 @@
       <c r="C130" t="s">
         <v>455</v>
       </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
@@ -6268,13 +10126,13 @@
       <c r="C131" t="s">
         <v>458</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="7">
         <v>826</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="7" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6288,9 +10146,9 @@
       <c r="C132" t="s">
         <v>461</v>
       </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
@@ -6302,9 +10160,9 @@
       <c r="C133" t="s">
         <v>464</v>
       </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
@@ -6316,9 +10174,9 @@
       <c r="C134" t="s">
         <v>467</v>
       </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
@@ -6330,9 +10188,9 @@
       <c r="C135" t="s">
         <v>470</v>
       </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
@@ -6344,9 +10202,9 @@
       <c r="C136" t="s">
         <v>473</v>
       </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
@@ -6358,13 +10216,13 @@
       <c r="C137" t="s">
         <v>476</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="7">
         <v>33788</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" s="7" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6378,9 +10236,9 @@
       <c r="C138" t="s">
         <v>479</v>
       </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
@@ -6392,9 +10250,9 @@
       <c r="C139" t="s">
         <v>482</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
@@ -6406,9 +10264,9 @@
       <c r="C140" t="s">
         <v>485</v>
       </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
@@ -6420,9 +10278,9 @@
       <c r="C141" t="s">
         <v>488</v>
       </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
@@ -6434,9 +10292,9 @@
       <c r="C142" t="s">
         <v>491</v>
       </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
@@ -6448,9 +10306,9 @@
       <c r="C143" t="s">
         <v>494</v>
       </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
@@ -6462,9 +10320,9 @@
       <c r="C144" t="s">
         <v>497</v>
       </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
@@ -6476,9 +10334,9 @@
       <c r="C145" t="s">
         <v>500</v>
       </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
@@ -6490,13 +10348,13 @@
       <c r="C146" t="s">
         <v>503</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="7">
         <v>30971</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="G146" s="7" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6510,9 +10368,9 @@
       <c r="C147" t="s">
         <v>506</v>
       </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
@@ -6524,13 +10382,13 @@
       <c r="C148" t="s">
         <v>509</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="7">
         <v>928</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6544,9 +10402,9 @@
       <c r="C149" t="s">
         <v>512</v>
       </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
@@ -6558,9 +10416,9 @@
       <c r="C150" t="s">
         <v>515</v>
       </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
@@ -6575,13 +10433,13 @@
       <c r="D151" t="s">
         <v>57</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="7">
         <v>1183</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="G151" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6595,13 +10453,13 @@
       <c r="C152" t="s">
         <v>521</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="7">
         <v>407199</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G152" s="7" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6615,9 +10473,9 @@
       <c r="C153" t="s">
         <v>524</v>
       </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
@@ -6629,9 +10487,9 @@
       <c r="C154" t="s">
         <v>527</v>
       </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
@@ -6643,9 +10501,9 @@
       <c r="C155" t="s">
         <v>530</v>
       </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
@@ -6657,13 +10515,13 @@
       <c r="C156" t="s">
         <v>533</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="7">
         <v>17070</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="G156" s="7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6677,9 +10535,9 @@
       <c r="C157" t="s">
         <v>536</v>
       </c>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
@@ -6691,13 +10549,13 @@
       <c r="C158" t="s">
         <v>539</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F158" s="7">
         <v>403</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G158" s="7" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6711,13 +10569,13 @@
       <c r="C159" t="s">
         <v>542</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F159" s="7">
         <v>159</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="G159" s="7" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6731,9 +10589,9 @@
       <c r="C160" t="s">
         <v>545</v>
       </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
@@ -6745,9 +10603,9 @@
       <c r="C161" t="s">
         <v>548</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
@@ -6759,9 +10617,9 @@
       <c r="C162" t="s">
         <v>551</v>
       </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
@@ -6773,9 +10631,9 @@
       <c r="C163" t="s">
         <v>554</v>
       </c>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
@@ -6787,9 +10645,9 @@
       <c r="C164" t="s">
         <v>557</v>
       </c>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
@@ -6801,9 +10659,9 @@
       <c r="C165" t="s">
         <v>560</v>
       </c>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
@@ -6815,9 +10673,9 @@
       <c r="C166" t="s">
         <v>563</v>
       </c>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
@@ -6829,13 +10687,13 @@
       <c r="C167" t="s">
         <v>566</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="7">
         <v>215</v>
       </c>
-      <c r="G167" s="4" t="s">
+      <c r="G167" s="7" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6849,9 +10707,9 @@
       <c r="C168" t="s">
         <v>569</v>
       </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
@@ -6863,9 +10721,9 @@
       <c r="C169" t="s">
         <v>572</v>
       </c>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
@@ -6877,13 +10735,13 @@
       <c r="C170" t="s">
         <v>575</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F170" s="4">
+      <c r="F170" s="7">
         <v>238</v>
       </c>
-      <c r="G170" s="4" t="s">
+      <c r="G170" s="7" t="s">
         <v>575</v>
       </c>
     </row>
@@ -6897,13 +10755,13 @@
       <c r="C171" t="s">
         <v>578</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F171" s="4">
+      <c r="F171" s="7">
         <v>1041</v>
       </c>
-      <c r="G171" s="4" t="s">
+      <c r="G171" s="7" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6917,9 +10775,9 @@
       <c r="C172" t="s">
         <v>581</v>
       </c>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
@@ -6931,9 +10789,9 @@
       <c r="C173" t="s">
         <v>584</v>
       </c>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
@@ -6945,13 +10803,13 @@
       <c r="C174" t="s">
         <v>587</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F174" s="4">
+      <c r="F174" s="7">
         <v>958</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="G174" s="7" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6965,9 +10823,9 @@
       <c r="C175" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
@@ -6979,9 +10837,9 @@
       <c r="C176" t="s">
         <v>593</v>
       </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
@@ -6993,13 +10851,13 @@
       <c r="C177" t="s">
         <v>596</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F177" s="4">
+      <c r="F177" s="7">
         <v>858</v>
       </c>
-      <c r="G177" s="4" t="s">
+      <c r="G177" s="7" t="s">
         <v>596</v>
       </c>
     </row>
@@ -7013,9 +10871,9 @@
       <c r="C178" t="s">
         <v>599</v>
       </c>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
@@ -7027,9 +10885,9 @@
       <c r="C179" t="s">
         <v>602</v>
       </c>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
@@ -7041,9 +10899,9 @@
       <c r="C180" t="s">
         <v>605</v>
       </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
@@ -7055,13 +10913,13 @@
       <c r="C181" t="s">
         <v>608</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E181" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181" s="7">
         <v>863</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G181" s="7" t="s">
         <v>608</v>
       </c>
     </row>
@@ -7075,9 +10933,9 @@
       <c r="C182" t="s">
         <v>611</v>
       </c>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
@@ -7089,9 +10947,9 @@
       <c r="C183" t="s">
         <v>614</v>
       </c>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
@@ -7103,9 +10961,9 @@
       <c r="C184" t="s">
         <v>617</v>
       </c>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
@@ -7117,13 +10975,13 @@
       <c r="C185" t="s">
         <v>620</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E185" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F185" s="4">
+      <c r="F185" s="7">
         <v>754</v>
       </c>
-      <c r="G185" s="4" t="s">
+      <c r="G185" s="7" t="s">
         <v>620</v>
       </c>
     </row>
@@ -7137,9 +10995,9 @@
       <c r="C186" t="s">
         <v>623</v>
       </c>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
@@ -7151,9 +11009,9 @@
       <c r="C187" t="s">
         <v>626</v>
       </c>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
@@ -7165,9 +11023,9 @@
       <c r="C188" t="s">
         <v>629</v>
       </c>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
@@ -7179,9 +11037,9 @@
       <c r="C189" t="s">
         <v>632</v>
       </c>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
@@ -7193,9 +11051,9 @@
       <c r="C190" t="s">
         <v>635</v>
       </c>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
@@ -7207,9 +11065,9 @@
       <c r="C191" t="s">
         <v>638</v>
       </c>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
@@ -7221,9 +11079,9 @@
       <c r="C192" t="s">
         <v>641</v>
       </c>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
@@ -7235,9 +11093,9 @@
       <c r="C193" t="s">
         <v>644</v>
       </c>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
@@ -7249,9 +11107,9 @@
       <c r="C194" t="s">
         <v>647</v>
       </c>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
@@ -7263,9 +11121,9 @@
       <c r="C195" t="s">
         <v>650</v>
       </c>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
@@ -7277,13 +11135,13 @@
       <c r="C196" t="s">
         <v>653</v>
       </c>
-      <c r="E196" s="4" t="s">
+      <c r="E196" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F196" s="4">
+      <c r="F196" s="7">
         <v>25305</v>
       </c>
-      <c r="G196" s="4" t="s">
+      <c r="G196" s="7" t="s">
         <v>653</v>
       </c>
     </row>
@@ -7300,13 +11158,13 @@
       <c r="D197" t="s">
         <v>57</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E197" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F197" s="4">
+      <c r="F197" s="7">
         <v>55614051</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="G197" s="7" t="s">
         <v>656</v>
       </c>
     </row>
@@ -7320,9 +11178,9 @@
       <c r="C198" t="s">
         <v>659</v>
       </c>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
@@ -7334,13 +11192,13 @@
       <c r="C199" t="s">
         <v>662</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="E199" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F199" s="4">
+      <c r="F199" s="7">
         <v>686</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="7" t="s">
         <v>662</v>
       </c>
     </row>
@@ -7354,9 +11212,9 @@
       <c r="C200" t="s">
         <v>665</v>
       </c>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
@@ -7371,13 +11229,13 @@
       <c r="D201" t="s">
         <v>57</v>
       </c>
-      <c r="E201" s="4" t="s">
+      <c r="E201" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F201" s="4">
+      <c r="F201" s="7">
         <v>27778324</v>
       </c>
-      <c r="G201" s="4" t="s">
+      <c r="G201" s="7" t="s">
         <v>668</v>
       </c>
     </row>
@@ -7385,7 +11243,7 @@
       <c r="A202" t="s">
         <v>669</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="8" t="s">
         <v>670</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -7513,7 +11371,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -7537,7 +11395,7 @@
       <c r="A2" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>693</v>
       </c>
     </row>
@@ -7569,7 +11427,7 @@
       <c r="A6" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>701</v>
       </c>
     </row>
@@ -7660,31 +11518,34 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.5390625" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>717</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>718</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>719</v>
       </c>
     </row>
@@ -7700,16 +11561,19 @@
       <c r="A4" t="s">
         <v>722</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>724</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>725</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -7723,6 +11587,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.wikidata.org/entity/Q558325"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://www.wikidata.org/entity/Q29509043"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://www.wikidata.org/entity/Q129979844"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries_updated.xlsx
+++ b/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16600" tabRatio="902" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28000" windowHeight="13020" tabRatio="902" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="area_type" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,9 @@
     <sheet name="release_status" sheetId="10" r:id="rId7"/>
     <sheet name="release-group_primary-type" sheetId="7" r:id="rId8"/>
     <sheet name="release-group_secondary-types" sheetId="8" r:id="rId9"/>
-    <sheet name="work-language" sheetId="11" r:id="rId10"/>
-    <sheet name="work-type" sheetId="9" r:id="rId11"/>
+    <sheet name="series_type" sheetId="12" r:id="rId10"/>
+    <sheet name="work-language" sheetId="11" r:id="rId11"/>
+    <sheet name="work-type" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">label_country!$A$1:$F$209</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1341">
   <si>
     <t>type</t>
   </si>
@@ -2332,6 +2333,75 @@
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q1428637</t>
+  </si>
+  <si>
+    <t>typeOfContainedEntity</t>
+  </si>
+  <si>
+    <t>typeOfContainedEntity_uri</t>
+  </si>
+  <si>
+    <t>Artist award</t>
+  </si>
+  <si>
+    <t>Artist series</t>
+  </si>
+  <si>
+    <t>Award ceremony</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q4504495</t>
+  </si>
+  <si>
+    <t>Catalogue</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q2352616</t>
+  </si>
+  <si>
+    <t>Event series</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q132241</t>
+  </si>
+  <si>
+    <t>Podcast</t>
+  </si>
+  <si>
+    <t>Recording award</t>
+  </si>
+  <si>
+    <t>Recording series</t>
+  </si>
+  <si>
+    <t>Release group award</t>
+  </si>
+  <si>
+    <t>Release group series</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q110940584</t>
+  </si>
+  <si>
+    <t>Release series</t>
+  </si>
+  <si>
+    <t>Residency</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>Work award</t>
+  </si>
+  <si>
+    <t>Work series</t>
   </si>
   <si>
     <t>language</t>
@@ -4666,7 +4736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4677,9 +4747,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5255,15 +5322,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -5271,7 +5338,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -5279,7 +5346,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -5287,7 +5354,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -5295,12 +5362,12 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -5308,7 +5375,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -5316,7 +5383,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -5324,7 +5391,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -5332,8 +5399,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5344,10 +5411,139 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1"/>
+    <col min="2" max="2" width="22.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>781</v>
+      </c>
+      <c r="B13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>786</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -5358,2319 +5554,2319 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>781</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>865</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>869</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>870</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="B31" s="5"/>
+        <v>871</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>872</v>
+      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>882</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="B38" s="5"/>
+        <v>886</v>
+      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>887</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="B40" s="5"/>
+        <v>888</v>
+      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B41" s="5"/>
+        <v>889</v>
+      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="B44" s="5"/>
+        <v>896</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>900</v>
+      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="B55" s="5"/>
+        <v>925</v>
+      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>912</v>
+        <v>935</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>914</v>
+        <v>937</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>938</v>
+      </c>
+      <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B64" s="5"/>
+        <v>948</v>
+      </c>
+      <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>927</v>
+        <v>950</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="B67" s="5"/>
+        <v>955</v>
+      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>933</v>
+        <v>956</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="B69" s="5"/>
+        <v>959</v>
+      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="B73" s="5"/>
+        <v>969</v>
+      </c>
+      <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>970</v>
+      </c>
+      <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>947</v>
+        <v>970</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="B75" s="5"/>
+        <v>971</v>
+      </c>
+      <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>950</v>
+        <v>973</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>954</v>
+        <v>977</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="B78" s="5"/>
+        <v>978</v>
+      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>955</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="B79" s="5"/>
+        <v>979</v>
+      </c>
+      <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>956</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>957</v>
+        <v>980</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>958</v>
+        <v>981</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>959</v>
+        <v>982</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="B81" s="5"/>
+        <v>983</v>
+      </c>
+      <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="B82" s="5"/>
+        <v>984</v>
+      </c>
+      <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="B83" s="5"/>
+        <v>985</v>
+      </c>
+      <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>962</v>
+        <v>985</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="B84" s="5"/>
+        <v>986</v>
+      </c>
+      <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>963</v>
+        <v>986</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
-        <v>964</v>
+        <v>987</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>965</v>
+        <v>988</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>966</v>
+        <v>989</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="B86" s="5"/>
+        <v>990</v>
+      </c>
+      <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>967</v>
+        <v>990</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>968</v>
+        <v>991</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>969</v>
+        <v>992</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>970</v>
+        <v>993</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="B88" s="5"/>
+        <v>994</v>
+      </c>
+      <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>971</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>975</v>
+        <v>998</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>976</v>
+        <v>999</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>977</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>978</v>
+        <v>1001</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>980</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>982</v>
+        <v>1005</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>983</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="B93" s="5"/>
+        <v>1007</v>
+      </c>
+      <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B94" s="5"/>
+        <v>1008</v>
+      </c>
+      <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>985</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
-        <v>986</v>
+        <v>1009</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>987</v>
+        <v>1010</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>988</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>991</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4" t="s">
-        <v>992</v>
+        <v>1015</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>993</v>
+        <v>1016</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>994</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="B98" s="5"/>
+        <v>1018</v>
+      </c>
+      <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>995</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B100" s="5"/>
+        <v>1022</v>
+      </c>
+      <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B101" s="5"/>
+        <v>1023</v>
+      </c>
+      <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>1000</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4" t="s">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1003</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="4" t="s">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B104" s="5"/>
+        <v>1030</v>
+      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>1007</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B105" s="5"/>
+        <v>1031</v>
+      </c>
+      <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>1008</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4" t="s">
-        <v>1009</v>
+        <v>1032</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1010</v>
+        <v>1033</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1011</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4" t="s">
-        <v>1012</v>
+        <v>1035</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1013</v>
+        <v>1036</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1014</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4" t="s">
-        <v>1015</v>
+        <v>1038</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1016</v>
+        <v>1039</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1017</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4" t="s">
-        <v>1018</v>
+        <v>1041</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1020</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1023</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B111" s="5"/>
+        <v>1047</v>
+      </c>
+      <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>1024</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1026</v>
+        <v>1049</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1027</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4" t="s">
-        <v>1028</v>
+        <v>1051</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1029</v>
+        <v>1052</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1030</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B114" s="5"/>
+        <v>1054</v>
+      </c>
+      <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>1031</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="4" t="s">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1033</v>
+        <v>1056</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1034</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B116" s="5"/>
+        <v>1058</v>
+      </c>
+      <c r="B116" s="4"/>
       <c r="C116" s="4" t="s">
-        <v>1035</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B117" s="5"/>
+        <v>1059</v>
+      </c>
+      <c r="B117" s="4"/>
       <c r="C117" s="4" t="s">
-        <v>1036</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B118" s="5"/>
+        <v>1060</v>
+      </c>
+      <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>1037</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B119" s="5"/>
+        <v>1061</v>
+      </c>
+      <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
-        <v>1038</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B120" s="5"/>
+        <v>1062</v>
+      </c>
+      <c r="B120" s="4"/>
       <c r="C120" s="4" t="s">
-        <v>1039</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="4" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1042</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4" t="s">
-        <v>1043</v>
+        <v>1066</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1044</v>
+        <v>1067</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1045</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B123" s="5"/>
+        <v>1069</v>
+      </c>
+      <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="4" t="s">
-        <v>1047</v>
+        <v>1070</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1048</v>
+        <v>1071</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1049</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B125" s="5"/>
+        <v>1073</v>
+      </c>
+      <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>1050</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B126" s="5"/>
+        <v>1074</v>
+      </c>
+      <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>1051</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B127" s="5"/>
+        <v>1075</v>
+      </c>
+      <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>1052</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="4" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1054</v>
+        <v>1077</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1055</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>1056</v>
+        <v>1079</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1057</v>
+        <v>1080</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1058</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>1059</v>
+        <v>1082</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1061</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>1062</v>
+        <v>1085</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1063</v>
+        <v>1086</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1064</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B132" s="5"/>
+        <v>1088</v>
+      </c>
+      <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>1065</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B133" s="5"/>
+        <v>1089</v>
+      </c>
+      <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>1066</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B134" s="5"/>
+        <v>1090</v>
+      </c>
+      <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
-        <v>1067</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B135" s="5"/>
+        <v>1091</v>
+      </c>
+      <c r="B135" s="4"/>
       <c r="C135" s="4" t="s">
-        <v>1068</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>1069</v>
+        <v>1092</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1070</v>
+        <v>1093</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1071</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>1072</v>
+        <v>1095</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1073</v>
+        <v>1096</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1074</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>1075</v>
+        <v>1098</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1077</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="4" t="s">
-        <v>1078</v>
+        <v>1101</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1079</v>
+        <v>1102</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1080</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="4" t="s">
-        <v>1081</v>
+        <v>1104</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1082</v>
+        <v>1105</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1083</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B141" s="5"/>
+        <v>1107</v>
+      </c>
+      <c r="B141" s="4"/>
       <c r="C141" s="4" t="s">
-        <v>1084</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B142" s="5"/>
+        <v>1108</v>
+      </c>
+      <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>1085</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="4" t="s">
-        <v>1086</v>
+        <v>1109</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1087</v>
+        <v>1110</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1088</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B144" s="5"/>
+        <v>1112</v>
+      </c>
+      <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>1089</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="4" t="s">
-        <v>1090</v>
+        <v>1113</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1092</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="4" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1095</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="4" t="s">
-        <v>1096</v>
+        <v>1119</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1097</v>
+        <v>1120</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1098</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="4" t="s">
-        <v>1099</v>
+        <v>1122</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1100</v>
+        <v>1123</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1101</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="4" t="s">
-        <v>1102</v>
+        <v>1125</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="4" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="4" t="s">
-        <v>1108</v>
+        <v>1131</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B152" s="5"/>
+        <v>1134</v>
+      </c>
+      <c r="B152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B153" s="5"/>
+        <v>1135</v>
+      </c>
+      <c r="B153" s="4"/>
       <c r="C153" s="4" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B154" s="5"/>
+        <v>1136</v>
+      </c>
+      <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>1113</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B155" s="5"/>
+        <v>1137</v>
+      </c>
+      <c r="B155" s="4"/>
       <c r="C155" s="4" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="4" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B157" s="5"/>
+        <v>1141</v>
+      </c>
+      <c r="B157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>1118</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="4" t="s">
-        <v>1119</v>
+        <v>1142</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1121</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B159" s="5"/>
+        <v>1145</v>
+      </c>
+      <c r="B159" s="4"/>
       <c r="C159" s="4" t="s">
-        <v>1122</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="4" t="s">
-        <v>1123</v>
+        <v>1146</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1124</v>
+        <v>1147</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1125</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B161" s="5"/>
+        <v>1149</v>
+      </c>
+      <c r="B161" s="4"/>
       <c r="C161" s="4" t="s">
-        <v>1126</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="4" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1128</v>
+        <v>1151</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1129</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="4" t="s">
-        <v>1130</v>
+        <v>1153</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1132</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="4" t="s">
-        <v>1133</v>
+        <v>1156</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1135</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="4" t="s">
-        <v>1136</v>
+        <v>1159</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="4" t="s">
-        <v>1137</v>
+        <v>1160</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1139</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="4" t="s">
-        <v>1140</v>
+        <v>1163</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1142</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="4" t="s">
-        <v>1143</v>
+        <v>1166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1144</v>
+        <v>1167</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1145</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="4" t="s">
-        <v>1146</v>
+        <v>1169</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B170" s="5"/>
+        <v>1172</v>
+      </c>
+      <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>1149</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B171" s="5"/>
+        <v>1173</v>
+      </c>
+      <c r="B171" s="4"/>
       <c r="C171" s="4" t="s">
-        <v>1150</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="4" t="s">
-        <v>1151</v>
+        <v>1174</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>1152</v>
+        <v>1175</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1153</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B173" s="5"/>
+        <v>1177</v>
+      </c>
+      <c r="B173" s="4"/>
       <c r="C173" s="4" t="s">
-        <v>1154</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B174" s="5"/>
+        <v>1178</v>
+      </c>
+      <c r="B174" s="4"/>
       <c r="C174" s="4" t="s">
-        <v>1155</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B175" s="5"/>
+        <v>1179</v>
+      </c>
+      <c r="B175" s="4"/>
       <c r="C175" s="4" t="s">
-        <v>1156</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B176" s="5"/>
+        <v>1180</v>
+      </c>
+      <c r="B176" s="4"/>
       <c r="C176" s="4" t="s">
-        <v>1157</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B177" s="5"/>
+        <v>1181</v>
+      </c>
+      <c r="B177" s="4"/>
       <c r="C177" s="4" t="s">
-        <v>1158</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="4" t="s">
-        <v>1159</v>
+        <v>1182</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1160</v>
+        <v>1183</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1161</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B179" s="5"/>
+        <v>1185</v>
+      </c>
+      <c r="B179" s="4"/>
       <c r="C179" s="4" t="s">
-        <v>1162</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B180" s="5"/>
+        <v>1186</v>
+      </c>
+      <c r="B180" s="4"/>
       <c r="C180" s="4" t="s">
-        <v>1163</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B181" s="5"/>
+        <v>1187</v>
+      </c>
+      <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>1164</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B182" s="5"/>
+        <v>1188</v>
+      </c>
+      <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>1165</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="4" t="s">
-        <v>1166</v>
+        <v>1189</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>1167</v>
+        <v>1190</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1168</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="4" t="s">
-        <v>1169</v>
+        <v>1192</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1170</v>
+        <v>1193</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1171</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="4" t="s">
-        <v>1172</v>
+        <v>1195</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1174</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="4" t="s">
-        <v>1175</v>
+        <v>1198</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1176</v>
+        <v>1199</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1177</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="4" t="s">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>1179</v>
+        <v>1202</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1180</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B188" s="5"/>
+        <v>1204</v>
+      </c>
+      <c r="B188" s="4"/>
       <c r="C188" s="4" t="s">
-        <v>1181</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B189" s="5"/>
+        <v>1205</v>
+      </c>
+      <c r="B189" s="4"/>
       <c r="C189" s="4" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="4" t="s">
-        <v>1183</v>
+        <v>1206</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1184</v>
+        <v>1207</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1185</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="4" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1187</v>
+        <v>1210</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1188</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>1212</v>
+      </c>
+      <c r="B192" s="4"/>
       <c r="C192" s="4" t="s">
-        <v>1189</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B193" s="5"/>
+        <v>1213</v>
+      </c>
+      <c r="B193" s="4"/>
       <c r="C193" s="4" t="s">
-        <v>1190</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B194" s="5"/>
+        <v>1214</v>
+      </c>
+      <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>1191</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="4" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1193</v>
+        <v>1216</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1194</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B196" s="5"/>
+        <v>1218</v>
+      </c>
+      <c r="B196" s="4"/>
       <c r="C196" s="4" t="s">
-        <v>1195</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>1196</v>
+        <v>1219</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1197</v>
+        <v>1220</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B198" s="5"/>
+        <v>1222</v>
+      </c>
+      <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>1199</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B199" s="5"/>
+        <v>1223</v>
+      </c>
+      <c r="B199" s="4"/>
       <c r="C199" s="4" t="s">
-        <v>1200</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B200" s="5"/>
+        <v>1224</v>
+      </c>
+      <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>1201</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
-        <v>1202</v>
+        <v>1225</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1203</v>
+        <v>1226</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1204</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>1205</v>
+        <v>1228</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1206</v>
+        <v>1229</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1207</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
-        <v>1208</v>
+        <v>1231</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1209</v>
+        <v>1232</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1210</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
-        <v>1211</v>
+        <v>1234</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>1212</v>
+        <v>1235</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1213</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
-        <v>1214</v>
+        <v>1237</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1216</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
-        <v>1217</v>
+        <v>1240</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1218</v>
+        <v>1241</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1219</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B207" s="5"/>
+        <v>1243</v>
+      </c>
+      <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>1220</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>1221</v>
+        <v>1244</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1222</v>
+        <v>1245</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1223</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1225</v>
+        <v>1248</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1226</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1228</v>
+        <v>1251</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1229</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>1231</v>
+        <v>1254</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1232</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
-        <v>1233</v>
+        <v>1256</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1234</v>
+        <v>1257</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1235</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
-        <v>1236</v>
+        <v>1259</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1238</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
-        <v>1239</v>
+        <v>1262</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1241</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B215" s="5"/>
+        <v>1265</v>
+      </c>
+      <c r="B215" s="4"/>
       <c r="C215" s="4" t="s">
-        <v>1242</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B216" s="5"/>
+        <v>1266</v>
+      </c>
+      <c r="B216" s="4"/>
       <c r="C216" s="4" t="s">
-        <v>1243</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>1245</v>
+        <v>1268</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1246</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
-        <v>1247</v>
+        <v>1270</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1248</v>
+        <v>1271</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1249</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B219" s="5"/>
+        <v>1273</v>
+      </c>
+      <c r="B219" s="4"/>
       <c r="C219" s="4" t="s">
-        <v>1250</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
-        <v>1251</v>
+        <v>1274</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>1252</v>
+        <v>1275</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1253</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
-        <v>1254</v>
+        <v>1277</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>1255</v>
+        <v>1278</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1256</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B222" s="5"/>
+        <v>1280</v>
+      </c>
+      <c r="B222" s="4"/>
       <c r="C222" s="4" t="s">
-        <v>1257</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B223" s="5"/>
+        <v>1281</v>
+      </c>
+      <c r="B223" s="4"/>
       <c r="C223" s="4" t="s">
-        <v>1258</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B224" s="5"/>
+        <v>1282</v>
+      </c>
+      <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>1259</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B225" s="5"/>
+        <v>1283</v>
+      </c>
+      <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>1260</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B226" s="5"/>
+        <v>1284</v>
+      </c>
+      <c r="B226" s="4"/>
       <c r="C226" s="4" t="s">
-        <v>1261</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B227" s="5"/>
+        <v>1285</v>
+      </c>
+      <c r="B227" s="4"/>
       <c r="C227" s="4" t="s">
-        <v>1262</v>
+        <v>1285</v>
       </c>
     </row>
   </sheetData>
@@ -7679,7 +7875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B30"/>
@@ -7704,10 +7900,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
       <c r="B2" t="s">
-        <v>1264</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7720,170 +7916,170 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1265</v>
+        <v>1288</v>
       </c>
       <c r="B4" t="s">
-        <v>1266</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="B6" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="B7" t="s">
-        <v>1272</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1273</v>
+        <v>1296</v>
       </c>
       <c r="B8" t="s">
-        <v>1274</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1275</v>
+        <v>1298</v>
       </c>
       <c r="B9" t="s">
-        <v>1276</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1277</v>
+        <v>1300</v>
       </c>
       <c r="B10" t="s">
-        <v>1278</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1279</v>
+        <v>1302</v>
       </c>
       <c r="B11" t="s">
-        <v>1280</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1281</v>
+        <v>1304</v>
       </c>
       <c r="B12" t="s">
-        <v>1282</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1283</v>
+        <v>1306</v>
       </c>
       <c r="B13" t="s">
-        <v>1284</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1285</v>
+        <v>1308</v>
       </c>
       <c r="B14" t="s">
-        <v>1286</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1287</v>
+        <v>1310</v>
       </c>
       <c r="B15" t="s">
-        <v>1288</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1289</v>
+        <v>1312</v>
       </c>
       <c r="B16" t="s">
-        <v>1290</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1291</v>
+        <v>1314</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1292</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1293</v>
+        <v>1316</v>
       </c>
       <c r="B18" t="s">
-        <v>1294</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1295</v>
+        <v>1318</v>
       </c>
       <c r="B19" t="s">
-        <v>1296</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
       <c r="B20" t="s">
-        <v>1298</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1299</v>
+        <v>1322</v>
       </c>
       <c r="B21" t="s">
-        <v>1300</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1301</v>
+        <v>1324</v>
       </c>
       <c r="B22" t="s">
-        <v>1302</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1303</v>
+        <v>1326</v>
       </c>
       <c r="B23" t="s">
-        <v>1304</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1305</v>
+        <v>1328</v>
       </c>
       <c r="B24" t="s">
-        <v>1306</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7891,47 +8087,47 @@
         <v>760</v>
       </c>
       <c r="B25" t="s">
-        <v>1307</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
       <c r="B26" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1310</v>
+        <v>1333</v>
       </c>
       <c r="B27" t="s">
-        <v>1311</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1312</v>
+        <v>1335</v>
       </c>
       <c r="B28" t="s">
-        <v>1313</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1314</v>
+        <v>1337</v>
       </c>
       <c r="B29" t="s">
-        <v>1315</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1316</v>
+        <v>1339</v>
       </c>
       <c r="B30" t="s">
-        <v>1317</v>
+        <v>1340</v>
       </c>
     </row>
   </sheetData>
@@ -7966,15 +8162,15 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -7982,7 +8178,7 @@
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7990,7 +8186,7 @@
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7998,12 +8194,12 @@
       </c>
     </row>
     <row r="6" ht="18" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8057,7 +8253,7 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8065,7 +8261,7 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8073,7 +8269,7 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8140,7 +8336,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -8148,7 +8344,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -8156,7 +8352,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -8164,7 +8360,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
@@ -8172,7 +8368,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
@@ -8180,7 +8376,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
@@ -8191,7 +8387,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
@@ -8202,7 +8398,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
@@ -8210,7 +8406,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
@@ -8218,7 +8414,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B11" t="s">
@@ -8545,9 +8741,9 @@
       <c r="C26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -8559,9 +8755,9 @@
       <c r="C27" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -8573,9 +8769,9 @@
       <c r="C28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
@@ -8587,9 +8783,9 @@
       <c r="C29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
@@ -8601,9 +8797,9 @@
       <c r="C30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
@@ -8615,9 +8811,9 @@
       <c r="C31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -8629,9 +8825,9 @@
       <c r="C32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
@@ -8643,9 +8839,9 @@
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
@@ -8657,9 +8853,9 @@
       <c r="C34" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
@@ -8671,9 +8867,9 @@
       <c r="C35" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
@@ -8685,9 +8881,9 @@
       <c r="C36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
@@ -8699,9 +8895,9 @@
       <c r="C37" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
@@ -8713,9 +8909,9 @@
       <c r="C38" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
@@ -8727,9 +8923,9 @@
       <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
@@ -8741,9 +8937,9 @@
       <c r="C40" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
@@ -8755,9 +8951,9 @@
       <c r="C41" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
@@ -8769,9 +8965,9 @@
       <c r="C42" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
@@ -8783,9 +8979,9 @@
       <c r="C43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
@@ -8797,9 +8993,9 @@
       <c r="C44" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
@@ -8811,9 +9007,9 @@
       <c r="C45" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
@@ -8825,9 +9021,9 @@
       <c r="C46" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
@@ -8839,9 +9035,9 @@
       <c r="C47" t="s">
         <v>205</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
@@ -8853,9 +9049,9 @@
       <c r="C48" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
@@ -8867,9 +9063,9 @@
       <c r="C49" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
@@ -8881,9 +9077,9 @@
       <c r="C50" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
@@ -8895,9 +9091,9 @@
       <c r="C51" t="s">
         <v>217</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
@@ -8909,9 +9105,9 @@
       <c r="C52" t="s">
         <v>220</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
@@ -8923,9 +9119,9 @@
       <c r="C53" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
@@ -8937,9 +9133,9 @@
       <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
@@ -8951,9 +9147,9 @@
       <c r="C55" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
@@ -8965,13 +9161,13 @@
       <c r="C56" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>262</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8985,9 +9181,9 @@
       <c r="C57" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
@@ -8999,13 +9195,13 @@
       <c r="C58" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>191</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -9019,9 +9215,9 @@
       <c r="C59" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
@@ -9033,9 +9229,9 @@
       <c r="C60" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
@@ -9047,9 +9243,9 @@
       <c r="C61" t="s">
         <v>248</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
@@ -9061,9 +9257,9 @@
       <c r="C62" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
@@ -9075,9 +9271,9 @@
       <c r="C63" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
@@ -9089,9 +9285,9 @@
       <c r="C64" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
@@ -9103,9 +9299,9 @@
       <c r="C65" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
@@ -9117,13 +9313,13 @@
       <c r="C66" t="s">
         <v>263</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <v>145</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9137,9 +9333,9 @@
       <c r="C67" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
@@ -9151,13 +9347,13 @@
       <c r="C68" t="s">
         <v>269</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <v>230</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9171,13 +9367,13 @@
       <c r="C69" t="s">
         <v>272</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <v>3769</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9191,13 +9387,13 @@
       <c r="C70" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <v>25230</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -9266,13 +9462,13 @@
       <c r="C76" t="s">
         <v>293</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <v>17012</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9286,9 +9482,9 @@
       <c r="C77" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
@@ -9300,9 +9496,9 @@
       <c r="C78" t="s">
         <v>299</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
@@ -9314,13 +9510,13 @@
       <c r="C79" t="s">
         <v>302</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <v>774</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="6" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9334,9 +9530,9 @@
       <c r="C80" t="s">
         <v>305</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
@@ -9348,13 +9544,13 @@
       <c r="C81" t="s">
         <v>308</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <v>8646</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="6" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9368,9 +9564,9 @@
       <c r="C82" t="s">
         <v>311</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
@@ -9382,9 +9578,9 @@
       <c r="C83" t="s">
         <v>314</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
@@ -9396,9 +9592,9 @@
       <c r="C84" t="s">
         <v>317</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -9410,13 +9606,13 @@
       <c r="C85" t="s">
         <v>320</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <v>28</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9430,9 +9626,9 @@
       <c r="C86" t="s">
         <v>323</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
@@ -9444,9 +9640,9 @@
       <c r="C87" t="s">
         <v>326</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
@@ -9458,9 +9654,9 @@
       <c r="C88" t="s">
         <v>329</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
@@ -9472,13 +9668,13 @@
       <c r="C89" t="s">
         <v>332</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <v>9676</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -9492,9 +9688,9 @@
       <c r="C90" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
@@ -9506,9 +9702,9 @@
       <c r="C91" t="s">
         <v>338</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
@@ -9520,9 +9716,9 @@
       <c r="C92" t="s">
         <v>341</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
@@ -9534,9 +9730,9 @@
       <c r="C93" t="s">
         <v>344</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
@@ -9548,9 +9744,9 @@
       <c r="C94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
@@ -9562,13 +9758,13 @@
       <c r="C95" t="s">
         <v>350</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <v>785</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9582,13 +9778,13 @@
       <c r="C96" t="s">
         <v>353</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>766</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" s="6" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9602,9 +9798,9 @@
       <c r="C97" t="s">
         <v>356</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
@@ -9616,9 +9812,9 @@
       <c r="C98" t="s">
         <v>359</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
@@ -9630,9 +9826,9 @@
       <c r="C99" t="s">
         <v>362</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
@@ -9644,9 +9840,9 @@
       <c r="C100" t="s">
         <v>365</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
@@ -9658,9 +9854,9 @@
       <c r="C101" t="s">
         <v>368</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
@@ -9672,9 +9868,9 @@
       <c r="C102" t="s">
         <v>371</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
@@ -9686,9 +9882,9 @@
       <c r="C103" t="s">
         <v>374</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
@@ -9700,9 +9896,9 @@
       <c r="C104" t="s">
         <v>377</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
@@ -9714,13 +9910,13 @@
       <c r="C105" t="s">
         <v>380</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <v>5785</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G105" s="6" t="s">
         <v>380</v>
       </c>
     </row>
@@ -9734,9 +9930,9 @@
       <c r="C106" t="s">
         <v>383</v>
       </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
@@ -9748,9 +9944,9 @@
       <c r="C107" t="s">
         <v>386</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
@@ -9762,9 +9958,9 @@
       <c r="C108" t="s">
         <v>389</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
@@ -9776,9 +9972,9 @@
       <c r="C109" t="s">
         <v>392</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
@@ -9790,13 +9986,13 @@
       <c r="C110" t="s">
         <v>395</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <v>347</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G110" s="6" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9810,13 +10006,13 @@
       <c r="C111" t="s">
         <v>398</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <v>854</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G111" s="6" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9830,9 +10026,9 @@
       <c r="C112" t="s">
         <v>401</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
@@ -9844,9 +10040,9 @@
       <c r="C113" t="s">
         <v>404</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
@@ -9858,9 +10054,9 @@
       <c r="C114" t="s">
         <v>407</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
@@ -9872,13 +10068,13 @@
       <c r="C115" t="s">
         <v>410</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <v>211</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="6" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9892,9 +10088,9 @@
       <c r="C116" t="s">
         <v>413</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
@@ -9906,9 +10102,9 @@
       <c r="C117" t="s">
         <v>416</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
@@ -9920,9 +10116,9 @@
       <c r="C118" t="s">
         <v>419</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
@@ -9934,9 +10130,9 @@
       <c r="C119" t="s">
         <v>422</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
@@ -9948,9 +10144,9 @@
       <c r="C120" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
@@ -9962,9 +10158,9 @@
       <c r="C121" t="s">
         <v>428</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
@@ -9976,9 +10172,9 @@
       <c r="C122" t="s">
         <v>431</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
@@ -9990,9 +10186,9 @@
       <c r="C123" t="s">
         <v>434</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
@@ -10004,9 +10200,9 @@
       <c r="C124" t="s">
         <v>437</v>
       </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
@@ -10018,9 +10214,9 @@
       <c r="C125" t="s">
         <v>440</v>
       </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
@@ -10032,13 +10228,13 @@
       <c r="C126" t="s">
         <v>443</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="6">
         <v>711</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G126" s="6" t="s">
         <v>443</v>
       </c>
     </row>
@@ -10052,13 +10248,13 @@
       <c r="C127" t="s">
         <v>446</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="6">
         <v>14773</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="G127" s="6" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10072,13 +10268,13 @@
       <c r="C128" t="s">
         <v>449</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="6">
         <v>17054</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="G128" s="6" t="s">
         <v>449</v>
       </c>
     </row>
@@ -10092,13 +10288,13 @@
       <c r="C129" t="s">
         <v>452</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="6">
         <v>233</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G129" s="6" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10112,9 +10308,9 @@
       <c r="C130" t="s">
         <v>455</v>
       </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
@@ -10126,13 +10322,13 @@
       <c r="C131" t="s">
         <v>458</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="6">
         <v>826</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="G131" s="6" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10146,9 +10342,9 @@
       <c r="C132" t="s">
         <v>461</v>
       </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
@@ -10160,9 +10356,9 @@
       <c r="C133" t="s">
         <v>464</v>
       </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
@@ -10174,9 +10370,9 @@
       <c r="C134" t="s">
         <v>467</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
@@ -10188,9 +10384,9 @@
       <c r="C135" t="s">
         <v>470</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
@@ -10202,9 +10398,9 @@
       <c r="C136" t="s">
         <v>473</v>
       </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
@@ -10216,13 +10412,13 @@
       <c r="C137" t="s">
         <v>476</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="6">
         <v>33788</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="G137" s="6" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10236,9 +10432,9 @@
       <c r="C138" t="s">
         <v>479</v>
       </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
@@ -10250,9 +10446,9 @@
       <c r="C139" t="s">
         <v>482</v>
       </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
@@ -10264,9 +10460,9 @@
       <c r="C140" t="s">
         <v>485</v>
       </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
@@ -10278,9 +10474,9 @@
       <c r="C141" t="s">
         <v>488</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
@@ -10292,9 +10488,9 @@
       <c r="C142" t="s">
         <v>491</v>
       </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
@@ -10306,9 +10502,9 @@
       <c r="C143" t="s">
         <v>494</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
@@ -10320,9 +10516,9 @@
       <c r="C144" t="s">
         <v>497</v>
       </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
@@ -10334,9 +10530,9 @@
       <c r="C145" t="s">
         <v>500</v>
       </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
@@ -10348,13 +10544,13 @@
       <c r="C146" t="s">
         <v>503</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="6">
         <v>30971</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="G146" s="6" t="s">
         <v>503</v>
       </c>
     </row>
@@ -10368,9 +10564,9 @@
       <c r="C147" t="s">
         <v>506</v>
       </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
@@ -10382,13 +10578,13 @@
       <c r="C148" t="s">
         <v>509</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="6">
         <v>928</v>
       </c>
-      <c r="G148" s="7" t="s">
+      <c r="G148" s="6" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10402,9 +10598,9 @@
       <c r="C149" t="s">
         <v>512</v>
       </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
@@ -10416,9 +10612,9 @@
       <c r="C150" t="s">
         <v>515</v>
       </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
@@ -10433,13 +10629,13 @@
       <c r="D151" t="s">
         <v>57</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="6">
         <v>1183</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="G151" s="6" t="s">
         <v>518</v>
       </c>
     </row>
@@ -10453,13 +10649,13 @@
       <c r="C152" t="s">
         <v>521</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="6">
         <v>407199</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="G152" s="6" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10473,9 +10669,9 @@
       <c r="C153" t="s">
         <v>524</v>
       </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
@@ -10487,9 +10683,9 @@
       <c r="C154" t="s">
         <v>527</v>
       </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
@@ -10501,9 +10697,9 @@
       <c r="C155" t="s">
         <v>530</v>
       </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
@@ -10515,13 +10711,13 @@
       <c r="C156" t="s">
         <v>533</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="6">
         <v>17070</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="G156" s="6" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10535,9 +10731,9 @@
       <c r="C157" t="s">
         <v>536</v>
       </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
@@ -10549,13 +10745,13 @@
       <c r="C158" t="s">
         <v>539</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E158" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="6">
         <v>403</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G158" s="6" t="s">
         <v>539</v>
       </c>
     </row>
@@ -10569,13 +10765,13 @@
       <c r="C159" t="s">
         <v>542</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="6">
         <v>159</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G159" s="6" t="s">
         <v>542</v>
       </c>
     </row>
@@ -10589,9 +10785,9 @@
       <c r="C160" t="s">
         <v>545</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
@@ -10603,9 +10799,9 @@
       <c r="C161" t="s">
         <v>548</v>
       </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
@@ -10617,9 +10813,9 @@
       <c r="C162" t="s">
         <v>551</v>
       </c>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
@@ -10631,9 +10827,9 @@
       <c r="C163" t="s">
         <v>554</v>
       </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
@@ -10645,9 +10841,9 @@
       <c r="C164" t="s">
         <v>557</v>
       </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
@@ -10659,9 +10855,9 @@
       <c r="C165" t="s">
         <v>560</v>
       </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
@@ -10673,9 +10869,9 @@
       <c r="C166" t="s">
         <v>563</v>
       </c>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
@@ -10687,13 +10883,13 @@
       <c r="C167" t="s">
         <v>566</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="6">
         <v>215</v>
       </c>
-      <c r="G167" s="7" t="s">
+      <c r="G167" s="6" t="s">
         <v>566</v>
       </c>
     </row>
@@ -10707,9 +10903,9 @@
       <c r="C168" t="s">
         <v>569</v>
       </c>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
@@ -10721,9 +10917,9 @@
       <c r="C169" t="s">
         <v>572</v>
       </c>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
@@ -10735,13 +10931,13 @@
       <c r="C170" t="s">
         <v>575</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E170" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="6">
         <v>238</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="G170" s="6" t="s">
         <v>575</v>
       </c>
     </row>
@@ -10755,13 +10951,13 @@
       <c r="C171" t="s">
         <v>578</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E171" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="6">
         <v>1041</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="G171" s="6" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10775,9 +10971,9 @@
       <c r="C172" t="s">
         <v>581</v>
       </c>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
@@ -10789,9 +10985,9 @@
       <c r="C173" t="s">
         <v>584</v>
       </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
@@ -10803,13 +10999,13 @@
       <c r="C174" t="s">
         <v>587</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="6">
         <v>958</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G174" s="6" t="s">
         <v>587</v>
       </c>
     </row>
@@ -10823,9 +11019,9 @@
       <c r="C175" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
@@ -10837,9 +11033,9 @@
       <c r="C176" t="s">
         <v>593</v>
       </c>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
@@ -10851,13 +11047,13 @@
       <c r="C177" t="s">
         <v>596</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="6">
         <v>858</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="G177" s="6" t="s">
         <v>596</v>
       </c>
     </row>
@@ -10871,9 +11067,9 @@
       <c r="C178" t="s">
         <v>599</v>
       </c>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
@@ -10885,9 +11081,9 @@
       <c r="C179" t="s">
         <v>602</v>
       </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
@@ -10899,9 +11095,9 @@
       <c r="C180" t="s">
         <v>605</v>
       </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
@@ -10913,13 +11109,13 @@
       <c r="C181" t="s">
         <v>608</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E181" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="6">
         <v>863</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="G181" s="6" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10933,9 +11129,9 @@
       <c r="C182" t="s">
         <v>611</v>
       </c>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
@@ -10947,9 +11143,9 @@
       <c r="C183" t="s">
         <v>614</v>
       </c>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
@@ -10961,9 +11157,9 @@
       <c r="C184" t="s">
         <v>617</v>
       </c>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
@@ -10975,13 +11171,13 @@
       <c r="C185" t="s">
         <v>620</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E185" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="6">
         <v>754</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="G185" s="6" t="s">
         <v>620</v>
       </c>
     </row>
@@ -10995,9 +11191,9 @@
       <c r="C186" t="s">
         <v>623</v>
       </c>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
@@ -11009,9 +11205,9 @@
       <c r="C187" t="s">
         <v>626</v>
       </c>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
@@ -11023,9 +11219,9 @@
       <c r="C188" t="s">
         <v>629</v>
       </c>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
@@ -11037,9 +11233,9 @@
       <c r="C189" t="s">
         <v>632</v>
       </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
@@ -11051,9 +11247,9 @@
       <c r="C190" t="s">
         <v>635</v>
       </c>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
@@ -11065,9 +11261,9 @@
       <c r="C191" t="s">
         <v>638</v>
       </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
@@ -11079,9 +11275,9 @@
       <c r="C192" t="s">
         <v>641</v>
       </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
@@ -11093,9 +11289,9 @@
       <c r="C193" t="s">
         <v>644</v>
       </c>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
@@ -11107,9 +11303,9 @@
       <c r="C194" t="s">
         <v>647</v>
       </c>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
@@ -11121,9 +11317,9 @@
       <c r="C195" t="s">
         <v>650</v>
       </c>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
@@ -11135,13 +11331,13 @@
       <c r="C196" t="s">
         <v>653</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="E196" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F196" s="7">
+      <c r="F196" s="6">
         <v>25305</v>
       </c>
-      <c r="G196" s="7" t="s">
+      <c r="G196" s="6" t="s">
         <v>653</v>
       </c>
     </row>
@@ -11158,13 +11354,13 @@
       <c r="D197" t="s">
         <v>57</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E197" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F197" s="7">
+      <c r="F197" s="6">
         <v>55614051</v>
       </c>
-      <c r="G197" s="7" t="s">
+      <c r="G197" s="6" t="s">
         <v>656</v>
       </c>
     </row>
@@ -11178,9 +11374,9 @@
       <c r="C198" t="s">
         <v>659</v>
       </c>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
@@ -11192,13 +11388,13 @@
       <c r="C199" t="s">
         <v>662</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="E199" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="6">
         <v>686</v>
       </c>
-      <c r="G199" s="7" t="s">
+      <c r="G199" s="6" t="s">
         <v>662</v>
       </c>
     </row>
@@ -11212,9 +11408,9 @@
       <c r="C200" t="s">
         <v>665</v>
       </c>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
@@ -11229,13 +11425,13 @@
       <c r="D201" t="s">
         <v>57</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="E201" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="6">
         <v>27778324</v>
       </c>
-      <c r="G201" s="7" t="s">
+      <c r="G201" s="6" t="s">
         <v>668</v>
       </c>
     </row>
@@ -11243,7 +11439,7 @@
       <c r="A202" t="s">
         <v>669</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>670</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -11395,7 +11591,7 @@
       <c r="A2" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>693</v>
       </c>
     </row>
@@ -11427,7 +11623,7 @@
       <c r="A6" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>701</v>
       </c>
     </row>
@@ -11663,7 +11859,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries_updated.xlsx
+++ b/ArchiveForReconciledEntries/MusicBrainz_archiveForManuallyReconciledEntries_updated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13020" tabRatio="902" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="29400" windowHeight="13000" tabRatio="816" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="area_type" sheetId="1" r:id="rId1"/>
@@ -5312,7 +5312,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -5413,8 +5413,8 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -8145,7 +8145,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -8225,7 +8225,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -8432,7 +8432,7 @@
   <sheetPr/>
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C183" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -11799,7 +11799,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
